--- a/Animaciones/Ani.xlsx
+++ b/Animaciones/Ani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efaja\Downloads\Clases 2023-2\Compu Gráfica\Proyecto\Proyecto-Zoo-CGeIHC-main\CodigoFinal\Animaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166700ED-7AEB-4DA0-BA04-AB3A6628A0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC0B0E-4582-4BDD-B37A-E45E0BEFCF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11059" yWindow="0" windowWidth="11059" windowHeight="11843" xr2:uid="{672547C8-1C04-4CC2-993F-65398D4A5C05}"/>
   </bookViews>
@@ -1002,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12" s="4">
         <v>5</v>
@@ -1034,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F13" s="4">
         <v>5</v>
